--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R29ac9bd4930c4d2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R636d7976d2f74bee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R636d7976d2f74bee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R31273e9392744cc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R31273e9392744cc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R735d40294e114acc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R735d40294e114acc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R3e93a1ef46b045d7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R3e93a1ef46b045d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R38ada3b075974b95"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R38ada3b075974b95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra4cfe8bb63b04a78"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra4cfe8bb63b04a78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rfba396bb52b14537"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rfba396bb52b14537"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R58a21e085ff0455f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R58a21e085ff0455f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R53e836b8fcd34c84"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R53e836b8fcd34c84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R5a7b57204d2b47ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R5a7b57204d2b47ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7144b58372774095"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R7144b58372774095"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2d5e7bddc81d4fb0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/074_GenericTableBasic.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2d5e7bddc81d4fb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R847bc7b45e4045da"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
